--- a/trend_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
+++ b/trend_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.328690213555041</v>
+        <v>0.671309786444959</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.938542432587275</v>
+        <v>0.061457567412725</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.665273653041746</v>
+        <v>0.334726346958254</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.237866057146823</v>
+        <v>0.762133942853177</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">

--- a/trend_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
+++ b/trend_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.987001169985144</v>
+        <v>0.9925976079172379</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.804347826086957</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.362940379403794</v>
+        <v>-0.360544240242516</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.5798637396120569</v>
+        <v>-0.569355314340893</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.125787794628905</v>
+        <v>-0.161178957252842</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.1978319783198</v>
+        <v>-16.7694995461635</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -660,35 +660,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.671309786444959</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.913793103448276</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.845</v>
+        <v>10.84</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0199567571215242</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.09354347897308719</v>
+        <v>-0.09358727142907559</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0506986130190437</v>
+        <v>0.0776525014842552</v>
       </c>
       <c r="N3" t="n">
-        <v>0.184018046302667</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.009683392326276</v>
+        <v>0.586853854667004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.440677966101695</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="H4" t="n">
         <v>0.11864406779661</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000684444754407</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -847,13 +847,13 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="H5" t="n">
-        <v>0.117647058823529</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.34833836918701</v>
+        <v>0.956794793985594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.677966101694915</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="H6" t="n">
         <v>0.0677966101694915</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1016,31 +1016,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0213819365745578</v>
+        <v>0.0029835528725788</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0025922046703296</v>
+        <v>0.0054902178178963</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0012154380441393</v>
+        <v>0.002281008550135</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0056459325960823</v>
+        <v>0.0080819862828144</v>
       </c>
       <c r="N7" t="n">
-        <v>7.85516566766567</v>
+        <v>15.2506050497122</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.061457567412725</v>
+        <v>0.038387869874593</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.807017543859649</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.67</v>
+        <v>7.51</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0519491338765016</v>
+        <v>-0.0543416275354601</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.104595369820924</v>
+        <v>-0.104357142857143</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.0046658032749325</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.677302918859213</v>
+        <v>-0.723590246810387</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1194,31 +1194,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.107514991185651</v>
+        <v>0.0118824968841707</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.644067796610169</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0019956757121524</v>
+        <v>0.0061591738618524</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0005017170329669999</v>
+        <v>0.0013664020889955</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0045343800877666</v>
+        <v>0.009030906593406499</v>
       </c>
       <c r="N9" t="n">
-        <v>4.86750173695711</v>
+        <v>14.6646996710772</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.08897538799290421</v>
+        <v>0.0017618567376681</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.305084745762712</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0049931647300068</v>
+        <v>0.0153466386554622</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.0069642120843987</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0116807928182197</v>
+        <v>0.0266217201166181</v>
       </c>
       <c r="N10" t="n">
-        <v>4.53924066364258</v>
+        <v>11.8051066580478</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.010939172257818</v>
+        <v>0.0022781427562524</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.322033898305085</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0008415898617511</v>
+        <v>0.0008152901785714001</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.000258778334363</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0015267846797793</v>
+        <v>0.0016042319481957</v>
       </c>
       <c r="N11" t="n">
-        <v>10.5198732718894</v>
+        <v>9.058779761904759</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.213833349912561</v>
+        <v>0.703021765672633</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.681818181818182</v>
+        <v>0.680412371134021</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.475</v>
+        <v>2.15</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0569834619864741</v>
+        <v>-0.0358001543365546</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0663321933600949</v>
+        <v>-0.154577793670439</v>
       </c>
       <c r="M12" t="n">
-        <v>0.191749401487825</v>
+        <v>0.0649056431029493</v>
       </c>
       <c r="N12" t="n">
-        <v>2.3023621004636</v>
+        <v>-1.66512345751417</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.334726346958254</v>
+        <v>0.312711884018881</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.871287128712871</v>
+        <v>0.846846846846847</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>10.84</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0071339142235907</v>
+        <v>-0.0059325933946939</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0460169274597568</v>
+        <v>-0.0372986628917775</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0202048331037585</v>
+        <v>0.0190568523946102</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0658110168227931</v>
+        <v>-0.0547287213532654</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1649,13 +1649,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.987868987083322</v>
+        <v>0.999696112697561</v>
       </c>
       <c r="G14" t="n">
-        <v>0.320388349514563</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="H14" t="n">
-        <v>0.087378640776699</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0003143287435456</v>
+        <v>-0.0003803102873802</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1740,13 +1740,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.447974505062564</v>
+        <v>0.433976145593665</v>
       </c>
       <c r="G15" t="n">
-        <v>0.947368421052632</v>
+        <v>0.943396226415094</v>
       </c>
       <c r="H15" t="n">
-        <v>0.115789473684211</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
@@ -1831,13 +1831,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.326714556379877</v>
+        <v>0.703187014023289</v>
       </c>
       <c r="G16" t="n">
-        <v>0.592233009708738</v>
+        <v>0.640350877192982</v>
       </c>
       <c r="H16" t="n">
-        <v>0.058252427184466</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1918,35 +1918,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.10770038806403e-05</v>
+        <v>3.2303912481976e-08</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="H17" t="n">
-        <v>0.572815533980582</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0024849192670537</v>
+        <v>0.0032783658787255</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0014164442437892</v>
+        <v>0.0022559094134296</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0036562783158438</v>
+        <v>0.0042654960227202</v>
       </c>
       <c r="N17" t="n">
-        <v>10.3538302793904</v>
+        <v>12.1420958471318</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2013,31 +2013,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.762133942853177</v>
+        <v>0.181302336457135</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.693069306930693</v>
+        <v>0.705357142857143</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.65</v>
+        <v>7.59</v>
       </c>
       <c r="K18" t="n">
-        <v>0.009344137376271201</v>
+        <v>-0.0108867603944563</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0130812914565454</v>
+        <v>-0.0316249504025265</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0350818019054911</v>
+        <v>0.0087329949689335</v>
       </c>
       <c r="N18" t="n">
-        <v>0.122145586617925</v>
+        <v>-0.143435578319583</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2100,31 +2100,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0005709856440311</v>
+        <v>1.50841796278942e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5242718446601941</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.033</v>
+        <v>0.0351</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0019972658920027</v>
+        <v>0.0029873227917121</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0009123902459861</v>
+        <v>0.001994085532302</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0030103021978022</v>
+        <v>0.0039051162540533</v>
       </c>
       <c r="N19" t="n">
-        <v>6.05232088485677</v>
+        <v>8.510891144478929</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2187,35 +2187,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0001583972011896</v>
+        <v>3.29746914724966e-08</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.0265486725663717</v>
       </c>
       <c r="H20" t="n">
-        <v>0.313725490196078</v>
+        <v>0.309734513274336</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0059975369458128</v>
+        <v>0.0091266652083537</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0032409050576752</v>
+        <v>0.0062414559125085</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008890081575211701</v>
+        <v>0.0119995924568967</v>
       </c>
       <c r="N20" t="n">
-        <v>5.99753694581281</v>
+        <v>8.29696837123068</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2282,31 +2282,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.003158374518399</v>
+        <v>0.0007834317462165</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.0176991150442478</v>
       </c>
       <c r="H21" t="n">
-        <v>0.196078431372549</v>
+        <v>0.194690265486726</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003525579150579</v>
+        <v>0.0003467014712861</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0001317295015968</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0005900148117017</v>
+        <v>0.0005244077530509</v>
       </c>
       <c r="N21" t="n">
-        <v>4.40697393822394</v>
+        <v>3.85223856984654</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>0.125726093254011</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2385,19 +2385,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.65</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0088777344151176</v>
+        <v>-0.0108118257017981</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0977313019775246</v>
+        <v>-0.0220206764173476</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0265065790127496</v>
+        <v>0.0019907599208247</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.36580529463348</v>
+        <v>-1.57148629386601</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.231216363225238</v>
+        <v>0.232756084937093</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2472,19 +2472,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>135.45</v>
+        <v>136.43</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.17034423417323</v>
+        <v>-0.450194222344543</v>
       </c>
       <c r="L23" t="n">
-        <v>-6.84804780505563</v>
+        <v>-1.94705679077372</v>
       </c>
       <c r="M23" t="n">
-        <v>2.82933467294311</v>
+        <v>0.807008742925449</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.864041516554617</v>
+        <v>-0.3299818385579</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.40324797025367</v>
+        <v>0.377227088747045</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>8.141</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.110590794100673</v>
+        <v>-0.0096902357034891</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.642321876051416</v>
+        <v>-0.110125628140703</v>
       </c>
       <c r="M24" t="n">
-        <v>0.209329197015308</v>
+        <v>0.08375102231254231</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.35844237932285</v>
+        <v>-0.11903004180677</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2610,267 +2610,6 @@
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Makakahi at end Kaiparoro Road</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0.125726093254011</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-0.0108118257017981</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-0.0220206764173476</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.0019907599208247</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-1.57148629386601</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>1820194.67</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5489791.61</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Makakahi at end Kaiparoro Road</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.232756084937093</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>136.43</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-0.450194222344543</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-1.94705679077372</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.807008742925449</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-0.3299818385579</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1820194.67</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5489791.61</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Makakahi at end Kaiparoro Road</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.377227088747045</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8.141</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-0.0096902357034891</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-0.110125628140703</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.08375102231254231</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-0.11903004180677</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>1820194.67</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5489791.61</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
+++ b/trend_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -130,52 +130,49 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -648,37 +645,37 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.9925976079172379</v>
+        <v>0.84248065726071</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.822222222222222</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.15</v>
+        <v>1.725</v>
       </c>
       <c r="K2">
-        <v>-0.360544240242516</v>
+        <v>-0.17014751552795</v>
       </c>
       <c r="L2">
-        <v>-0.569355314340893</v>
+        <v>-0.37986588230217</v>
       </c>
       <c r="M2">
-        <v>-0.161178957252842</v>
+        <v>0.0851160439895374</v>
       </c>
       <c r="N2">
-        <v>-16.7694995461635</v>
+        <v>-9.863624088576829</v>
       </c>
       <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
         <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
       </c>
       <c r="Q2">
         <v>1820194.67</v>
@@ -687,19 +684,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>55</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -716,40 +713,40 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.928204018042361</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.8947368421052631</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.84</v>
+        <v>10.83</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.040137362637363</v>
       </c>
       <c r="L3">
-        <v>-0.09358727142907559</v>
+        <v>-0.0248842153063279</v>
       </c>
       <c r="M3">
-        <v>0.0776525014842552</v>
+        <v>0.100296814162519</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.370612766734653</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>1820194.67</v>
@@ -758,19 +755,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" t="s">
         <v>54</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>56</v>
       </c>
-      <c r="V3" t="s">
-        <v>57</v>
-      </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -787,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>0.586853854667004</v>
+        <v>0.281735616433383</v>
       </c>
       <c r="G4">
-        <v>0.491525423728814</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="H4">
         <v>0.11864406779661</v>
@@ -802,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.005</v>
+        <v>0.0025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -817,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>1820194.67</v>
@@ -829,19 +826,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>55</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>56</v>
       </c>
-      <c r="V4" t="s">
-        <v>57</v>
-      </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -858,22 +855,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>0.0940958341593247</v>
       </c>
       <c r="G5">
-        <v>0.925925925925926</v>
+        <v>0.875</v>
       </c>
       <c r="H5">
-        <v>0.111111111111111</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.005</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1820194.67</v>
@@ -882,19 +897,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" t="s">
         <v>54</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>55</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>56</v>
       </c>
-      <c r="V5" t="s">
-        <v>57</v>
-      </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -911,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>0.956794793985594</v>
+        <v>0.998240311043233</v>
       </c>
       <c r="G6">
-        <v>0.728813559322034</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="H6">
         <v>0.0677966101694915</v>
@@ -941,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1820194.67</v>
@@ -953,19 +968,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" t="s">
         <v>54</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>55</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>56</v>
       </c>
-      <c r="V6" t="s">
-        <v>57</v>
-      </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -985,37 +1000,37 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.0029835528725788</v>
+        <v>0.0003470072564253</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.711864406779661</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.036</v>
+        <v>0.043</v>
       </c>
       <c r="K7">
-        <v>0.0054902178178963</v>
+        <v>0.008696428571428501</v>
       </c>
       <c r="L7">
-        <v>0.002281008550135</v>
+        <v>0.0056861263736263</v>
       </c>
       <c r="M7">
-        <v>0.0080819862828144</v>
+        <v>0.0122398286363708</v>
       </c>
       <c r="N7">
-        <v>15.2506050497122</v>
+        <v>20.2242524916944</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1820194.67</v>
@@ -1024,19 +1039,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" t="s">
         <v>54</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>55</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>56</v>
       </c>
-      <c r="V7" t="s">
-        <v>57</v>
-      </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1056,37 +1071,37 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>0.038387869874593</v>
+        <v>0.341145966241752</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.8245614035087721</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.51</v>
+        <v>7.465</v>
       </c>
       <c r="K8">
-        <v>-0.0543416275354601</v>
+        <v>-0.0093176020408161</v>
       </c>
       <c r="L8">
-        <v>-0.104357142857143</v>
+        <v>-0.06381778769727629</v>
       </c>
       <c r="M8">
-        <v>-0.0046658032749325</v>
+        <v>0.0366343966592209</v>
       </c>
       <c r="N8">
-        <v>-0.723590246810387</v>
+        <v>-0.124817174022989</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1820194.67</v>
@@ -1095,16 +1110,16 @@
         <v>5489791.61</v>
       </c>
       <c r="S8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" t="s">
         <v>54</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>55</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>56</v>
-      </c>
-      <c r="V8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1124,37 +1139,37 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <v>0.0118824968841707</v>
+        <v>0.0001078299497114</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.728813559322034</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.042</v>
+        <v>0.055</v>
       </c>
       <c r="K9">
-        <v>0.0061591738618524</v>
+        <v>0.0115863612899839</v>
       </c>
       <c r="L9">
-        <v>0.0013664020889955</v>
+        <v>0.0070240384615384</v>
       </c>
       <c r="M9">
-        <v>0.009030906593406499</v>
+        <v>0.016078933938363</v>
       </c>
       <c r="N9">
-        <v>14.6646996710772</v>
+        <v>21.0661114363344</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1820194.67</v>
@@ -1163,19 +1178,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" t="s">
         <v>54</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>55</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>56</v>
       </c>
-      <c r="V9" t="s">
-        <v>57</v>
-      </c>
       <c r="W9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1195,37 +1210,37 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>0.0017618567376681</v>
+        <v>0.0036083888573645</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.372881355932203</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="K10">
-        <v>0.0153466386554622</v>
+        <v>0.0152568922305764</v>
       </c>
       <c r="L10">
-        <v>0.0069642120843987</v>
+        <v>0.0062860830700146</v>
       </c>
       <c r="M10">
-        <v>0.0266217201166181</v>
+        <v>0.0257673751371402</v>
       </c>
       <c r="N10">
-        <v>11.8051066580478</v>
+        <v>10.8977801646975</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1820194.67</v>
@@ -1234,19 +1249,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" t="s">
         <v>54</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>55</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>56</v>
       </c>
-      <c r="V10" t="s">
-        <v>57</v>
-      </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1263,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0022781427562524</v>
+        <v>0.327224104264267</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.338983050847458</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1281,22 +1296,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K11">
-        <v>0.0008152901785714001</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.000258778334363</v>
+        <v>-0.0004449205527816</v>
       </c>
       <c r="M11">
-        <v>0.0016042319481957</v>
+        <v>0.0006044532074761</v>
       </c>
       <c r="N11">
-        <v>9.058779761904759</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1820194.67</v>
@@ -1305,19 +1320,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" t="s">
         <v>54</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>55</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>56</v>
       </c>
-      <c r="V11" t="s">
-        <v>57</v>
-      </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1337,13 +1352,13 @@
         <v>37</v>
       </c>
       <c r="F12">
-        <v>0.703021765672633</v>
+        <v>0.907336928299513</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.680412371134021</v>
+        <v>0.646464646464647</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1352,22 +1367,22 @@
         <v>2.15</v>
       </c>
       <c r="K12">
-        <v>-0.0358001543365546</v>
+        <v>-0.0703757225433526</v>
       </c>
       <c r="L12">
-        <v>-0.154577793670439</v>
+        <v>-0.17919724645354</v>
       </c>
       <c r="M12">
-        <v>0.0649056431029493</v>
+        <v>0.0150585718126052</v>
       </c>
       <c r="N12">
-        <v>-1.66512345751417</v>
+        <v>-3.27328942062105</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1820194.67</v>
@@ -1376,19 +1391,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" t="s">
         <v>54</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>55</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>56</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>57</v>
-      </c>
-      <c r="W12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1408,37 +1423,37 @@
         <v>37</v>
       </c>
       <c r="F13">
-        <v>0.312711884018881</v>
+        <v>0.435666668443441</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.846846846846847</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.84</v>
+        <v>10.85</v>
       </c>
       <c r="K13">
-        <v>-0.0059325933946939</v>
+        <v>-0.0024965823650033</v>
       </c>
       <c r="L13">
-        <v>-0.0372986628917775</v>
+        <v>-0.0232379468095153</v>
       </c>
       <c r="M13">
-        <v>0.0190568523946102</v>
+        <v>0.0200665536427424</v>
       </c>
       <c r="N13">
-        <v>-0.0547287213532654</v>
+        <v>-0.0230099757143167</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1820194.67</v>
@@ -1447,19 +1462,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" t="s">
         <v>54</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>55</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>56</v>
       </c>
-      <c r="V13" t="s">
-        <v>57</v>
-      </c>
       <c r="W13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1476,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>0.999696112697561</v>
+        <v>0.991480040836772</v>
       </c>
       <c r="G14">
-        <v>0.368421052631579</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="H14">
-        <v>0.0789473684210526</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1497,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.0003803102873802</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1506,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1820194.67</v>
@@ -1518,19 +1533,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" t="s">
         <v>54</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>55</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>56</v>
       </c>
-      <c r="V14" t="s">
-        <v>57</v>
-      </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1547,16 +1562,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>0.433976145593665</v>
+        <v>0.0413355823467984</v>
       </c>
       <c r="G15">
-        <v>0.943396226415094</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="H15">
-        <v>0.113207547169811</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -1577,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1820194.67</v>
@@ -1589,19 +1604,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S15" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" t="s">
         <v>54</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>55</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>56</v>
       </c>
-      <c r="V15" t="s">
-        <v>57</v>
-      </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1618,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>0.703187014023289</v>
+        <v>0.921408938067255</v>
       </c>
       <c r="G16">
-        <v>0.640350877192982</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="H16">
-        <v>0.0526315789473684</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1648,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q16">
         <v>1820194.67</v>
@@ -1660,19 +1675,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S16" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" t="s">
         <v>54</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>55</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>56</v>
       </c>
-      <c r="V16" t="s">
-        <v>57</v>
-      </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1692,37 +1707,37 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>3.2303912481976E-08</v>
+        <v>7.6799003979521E-11</v>
       </c>
       <c r="G17">
-        <v>0.087719298245614</v>
+        <v>0.0593220338983051</v>
       </c>
       <c r="H17">
-        <v>0.543859649122807</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.027</v>
+        <v>0.0315</v>
       </c>
       <c r="K17">
-        <v>0.0032783658787255</v>
+        <v>0.0041829466941563</v>
       </c>
       <c r="L17">
-        <v>0.0022559094134296</v>
+        <v>0.0030602285759177</v>
       </c>
       <c r="M17">
-        <v>0.0042654960227202</v>
+        <v>0.0055201749105499</v>
       </c>
       <c r="N17">
-        <v>12.1420958471318</v>
+        <v>13.2791958544646</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1820194.67</v>
@@ -1731,19 +1746,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" t="s">
         <v>54</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>55</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>56</v>
       </c>
-      <c r="V17" t="s">
-        <v>57</v>
-      </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1763,13 +1778,13 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.181302336457135</v>
+        <v>0.050303229666157</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.705357142857143</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1778,22 +1793,22 @@
         <v>7.59</v>
       </c>
       <c r="K18">
-        <v>-0.0108867603944563</v>
+        <v>-0.0182590884725031</v>
       </c>
       <c r="L18">
-        <v>-0.0316249504025265</v>
+        <v>-0.0355070467481442</v>
       </c>
       <c r="M18">
-        <v>0.0087329949689335</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>-0.143435578319583</v>
+        <v>-0.240567700559988</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q18">
         <v>1820194.67</v>
@@ -1802,16 +1817,16 @@
         <v>5489791.61</v>
       </c>
       <c r="S18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T18" t="s">
         <v>54</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>55</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>56</v>
-      </c>
-      <c r="V18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1831,37 +1846,37 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>1.50841796278942E-06</v>
+        <v>4.51170693111211E-10</v>
       </c>
       <c r="G19">
-        <v>0.0350877192982456</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H19">
-        <v>0.614035087719298</v>
+        <v>0.601694915254237</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.0351</v>
+        <v>0.039</v>
       </c>
       <c r="K19">
-        <v>0.0029873227917121</v>
+        <v>0.0044006037294464</v>
       </c>
       <c r="L19">
-        <v>0.001994085532302</v>
+        <v>0.0030625026089303</v>
       </c>
       <c r="M19">
-        <v>0.0039051162540533</v>
+        <v>0.0063169042714208</v>
       </c>
       <c r="N19">
-        <v>8.510891144478929</v>
+        <v>11.2835993062729</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1820194.67</v>
@@ -1870,19 +1885,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S19" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" t="s">
         <v>54</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>55</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>56</v>
       </c>
-      <c r="V19" t="s">
-        <v>57</v>
-      </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1899,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>3.29746914724966E-08</v>
+        <v>3.1711849665401E-10</v>
       </c>
       <c r="G20">
-        <v>0.0265486725663717</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H20">
-        <v>0.309734513274336</v>
+        <v>0.279661016949153</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1917,22 +1932,22 @@
         <v>0.11</v>
       </c>
       <c r="K20">
-        <v>0.0091266652083537</v>
+        <v>0.0106416823308271</v>
       </c>
       <c r="L20">
-        <v>0.0062414559125085</v>
+        <v>0.0078008017923256</v>
       </c>
       <c r="M20">
-        <v>0.0119995924568967</v>
+        <v>0.0134972262361234</v>
       </c>
       <c r="N20">
-        <v>8.29696837123068</v>
+        <v>9.67425666438824</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q20">
         <v>1820194.67</v>
@@ -1941,19 +1956,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S20" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" t="s">
         <v>54</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>55</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>56</v>
       </c>
-      <c r="V20" t="s">
-        <v>57</v>
-      </c>
       <c r="W20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1973,37 +1988,37 @@
         <v>37</v>
       </c>
       <c r="F21">
-        <v>0.0007834317462165</v>
+        <v>0.0038483186293436</v>
       </c>
       <c r="G21">
-        <v>0.0176991150442478</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H21">
-        <v>0.194690265486726</v>
+        <v>0.194915254237288</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.008999999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K21">
-        <v>0.0003467014712861</v>
+        <v>0.0002472918077183</v>
       </c>
       <c r="L21">
-        <v>0.0001317295015968</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0005244077530509</v>
+        <v>0.0004361520388561</v>
       </c>
       <c r="N21">
-        <v>3.85223856984654</v>
+        <v>2.90931538492174</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q21">
         <v>1820194.67</v>
@@ -2012,19 +2027,19 @@
         <v>5489791.61</v>
       </c>
       <c r="S21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" t="s">
         <v>54</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>55</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>56</v>
       </c>
-      <c r="V21" t="s">
-        <v>57</v>
-      </c>
       <c r="W21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6879999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="K22">
-        <v>-0.0108118257017981</v>
+        <v>-0.0107416402393173</v>
       </c>
       <c r="L22">
         <v>-0.0220206764173476</v>
@@ -2068,13 +2083,13 @@
         <v>0.0019907599208247</v>
       </c>
       <c r="N22">
-        <v>-1.57148629386601</v>
+        <v>-1.58197941668886</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1820194.67</v>
@@ -2083,16 +2098,16 @@
         <v>5489791.61</v>
       </c>
       <c r="S22" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" t="s">
         <v>54</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>55</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>56</v>
-      </c>
-      <c r="V22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2124,25 +2139,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>136.43</v>
+        <v>138</v>
       </c>
       <c r="K23">
-        <v>-0.450194222344543</v>
+        <v>-0.349613521610501</v>
       </c>
       <c r="L23">
         <v>-1.94705679077372</v>
       </c>
       <c r="M23">
-        <v>0.807008742925449</v>
+        <v>0.613625715206527</v>
       </c>
       <c r="N23">
-        <v>-0.3299818385579</v>
+        <v>-0.253343131601812</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q23">
         <v>1820194.67</v>
@@ -2151,16 +2166,16 @@
         <v>5489791.61</v>
       </c>
       <c r="S23" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" t="s">
         <v>54</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>55</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>56</v>
-      </c>
-      <c r="V23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2180,7 +2195,7 @@
         <v>37</v>
       </c>
       <c r="F24">
-        <v>0.377227088747045</v>
+        <v>0.458482618314432</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2192,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.141</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K24">
-        <v>-0.0096902357034891</v>
+        <v>-0.0057017740821159</v>
       </c>
       <c r="L24">
-        <v>-0.110125628140703</v>
+        <v>-0.106583730169978</v>
       </c>
       <c r="M24">
-        <v>0.08375102231254231</v>
+        <v>0.08567804107867651</v>
       </c>
       <c r="N24">
-        <v>-0.11903004180677</v>
+        <v>-0.06877893947063871</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1820194.67</v>
@@ -2219,16 +2234,16 @@
         <v>5489791.61</v>
       </c>
       <c r="S24" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" t="s">
         <v>54</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>55</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>56</v>
-      </c>
-      <c r="V24" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
